--- a/data/fact_data/Beed/beed_sec_Jan_19.xlsx
+++ b/data/fact_data/Beed/beed_sec_Jan_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Beed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625B59A-4A45-EB48-A64D-6928A8028089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48613DD-29CE-8B42-94B3-56B4977E5EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beed_Arun_Jan_19" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="88">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -263,9 +263,6 @@
     <t>TOTAL PHYSIOMER :</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>region_name</t>
   </si>
   <si>
@@ -293,13 +290,19 @@
     <t>Surveshawar</t>
   </si>
   <si>
-    <t>Anil</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
     <t>product_name</t>
+  </si>
+  <si>
+    <t>Anil Kumar</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>sec</t>
   </si>
 </sst>
 </file>
@@ -1888,13 +1891,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -1903,16 +1906,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1920,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>63</v>
@@ -1939,7 +1942,7 @@
         <v>810</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -1950,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>63</v>
@@ -1969,7 +1972,7 @@
         <v>1422</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -1980,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>63</v>
@@ -1999,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -2010,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>63</v>
@@ -2029,7 +2032,7 @@
         <v>53664</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -2040,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>63</v>
@@ -2059,7 +2062,7 @@
         <v>1950</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -2070,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>63</v>
@@ -2089,7 +2092,7 @@
         <v>976</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -2100,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>63</v>
@@ -2119,7 +2122,7 @@
         <v>880</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -2130,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>63</v>
@@ -2149,7 +2152,7 @@
         <v>1881</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -2160,7 +2163,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>63</v>
@@ -2175,7 +2178,7 @@
         <v>2646</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -2186,7 +2189,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>63</v>
@@ -2201,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -2212,7 +2215,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>63</v>
@@ -2227,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -2238,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>63</v>
@@ -2257,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -2268,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>63</v>
@@ -2287,7 +2290,7 @@
         <v>70408</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -2298,7 +2301,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>63</v>
@@ -2317,7 +2320,7 @@
         <v>3381</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -2328,7 +2331,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>63</v>
@@ -2340,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -2351,7 +2354,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>63</v>
@@ -2370,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -2381,7 +2384,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>63</v>
@@ -2400,7 +2403,7 @@
         <v>30331</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -2411,7 +2414,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>63</v>
@@ -2426,7 +2429,7 @@
         <v>15043</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -2437,7 +2440,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>63</v>
@@ -2452,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -2463,7 +2466,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>63</v>
@@ -2482,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -2493,7 +2496,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>63</v>
@@ -2505,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -2516,7 +2519,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>63</v>
@@ -2535,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -2546,7 +2549,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>63</v>
@@ -2565,7 +2568,7 @@
         <v>1632</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -2576,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>63</v>
@@ -2595,7 +2598,7 @@
         <v>240</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -2606,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>63</v>
@@ -2625,7 +2628,7 @@
         <v>13440</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -2636,7 +2639,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>63</v>
@@ -2651,7 +2654,7 @@
         <v>18260</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -2662,7 +2665,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>63</v>
@@ -2677,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -2688,7 +2691,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>63</v>
@@ -2707,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -2718,7 +2721,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>63</v>
@@ -2737,7 +2740,7 @@
         <v>807</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -2748,7 +2751,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>63</v>
@@ -2767,7 +2770,7 @@
         <v>1266</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -2778,7 +2781,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>63</v>
@@ -2797,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -2808,7 +2811,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>63</v>
@@ -2827,7 +2830,7 @@
         <v>1730</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -2838,7 +2841,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>63</v>
@@ -2857,7 +2860,7 @@
         <v>1726</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -2868,7 +2871,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>63</v>
@@ -2880,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -2891,7 +2894,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>63</v>
@@ -2910,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -2921,7 +2924,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>63</v>
@@ -2940,7 +2943,7 @@
         <v>5468</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -2951,7 +2954,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>63</v>
@@ -2970,7 +2973,7 @@
         <v>13370</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -2981,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>63</v>
@@ -3000,7 +3003,7 @@
         <v>2184</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -3011,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>63</v>
@@ -3030,7 +3033,7 @@
         <v>27027</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -3041,7 +3044,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>63</v>
@@ -3060,7 +3063,7 @@
         <v>2716</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -3071,7 +3074,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>63</v>
@@ -3090,7 +3093,7 @@
         <v>2540</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -3101,7 +3104,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>63</v>
@@ -3120,7 +3123,7 @@
         <v>1184</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -3131,7 +3134,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>63</v>
@@ -3150,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -3161,7 +3164,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>63</v>
@@ -3173,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -3184,7 +3187,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>63</v>
@@ -3196,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -3207,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>63</v>
@@ -3226,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -3237,7 +3240,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>63</v>
@@ -3256,7 +3259,7 @@
         <v>785</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -3267,7 +3270,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>63</v>
@@ -3286,7 +3289,7 @@
         <v>669</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -3297,7 +3300,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>63</v>
@@ -3309,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -3320,7 +3323,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>63</v>
@@ -3339,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -3350,7 +3353,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>63</v>
@@ -3363,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -3374,7 +3377,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>63</v>
@@ -3393,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -3404,7 +3407,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>63</v>
@@ -3417,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -3428,7 +3431,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>63</v>
@@ -3447,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -3458,7 +3461,7 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>63</v>
@@ -3471,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -3482,7 +3485,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>63</v>
@@ -3497,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -3508,7 +3511,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>63</v>
@@ -3523,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -3534,7 +3537,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>63</v>
@@ -3549,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -3560,7 +3563,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>63</v>
@@ -3575,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -3586,7 +3589,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>63</v>
@@ -3601,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -3612,7 +3615,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>63</v>
@@ -3627,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -3638,7 +3641,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>63</v>
@@ -3653,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -3664,7 +3667,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>63</v>
@@ -3679,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -3690,7 +3693,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>63</v>
@@ -3705,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -3716,7 +3719,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>63</v>
@@ -3728,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -3739,7 +3742,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>63</v>
@@ -3758,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -3769,7 +3772,7 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>63</v>
@@ -3784,7 +3787,7 @@
         <v>3105</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -3795,7 +3798,7 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>63</v>
@@ -3810,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -3821,7 +3824,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>63</v>
@@ -3840,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -3851,7 +3854,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>63</v>
@@ -3867,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -3878,7 +3881,7 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>63</v>
@@ -3890,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
@@ -3932,13 +3935,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -3947,16 +3950,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3964,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3">
         <v>28</v>
@@ -3983,7 +3986,7 @@
         <v>3780</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
         <v>2019</v>
@@ -3994,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4009,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
         <v>2019</v>
@@ -4020,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3">
         <v>77</v>
@@ -4039,7 +4042,7 @@
         <v>7007</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
         <v>2019</v>
@@ -4050,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -4065,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
         <v>2019</v>
@@ -4076,10 +4079,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3">
         <v>12</v>
@@ -4095,7 +4098,7 @@
         <v>1560</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
         <v>2019</v>
@@ -4106,10 +4109,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -4121,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
         <v>2019</v>
@@ -4132,10 +4135,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3">
         <v>42</v>
@@ -4151,7 +4154,7 @@
         <v>3696</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
         <v>2019</v>
@@ -4162,10 +4165,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3">
         <v>113</v>
@@ -4181,7 +4184,7 @@
         <v>6441</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
         <v>2019</v>
@@ -4192,10 +4195,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4207,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
         <v>2019</v>
@@ -4218,10 +4221,10 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4233,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
         <v>2019</v>
@@ -4244,10 +4247,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -4263,7 +4266,7 @@
         <v>223</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
         <v>2019</v>
@@ -4274,10 +4277,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3">
         <v>343</v>
@@ -4293,7 +4296,7 @@
         <v>20923</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
         <v>2019</v>
@@ -4304,10 +4307,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3">
         <v>35</v>
@@ -4323,7 +4326,7 @@
         <v>3640</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
         <v>2019</v>
@@ -4334,10 +4337,10 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4349,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
         <v>2019</v>
@@ -4360,10 +4363,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4372,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
         <v>2019</v>
@@ -4383,10 +4386,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3">
         <v>346</v>
@@ -4402,7 +4405,7 @@
         <v>24220</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
         <v>2019</v>
@@ -4413,10 +4416,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3">
         <v>465</v>
@@ -4432,7 +4435,7 @@
         <v>22785</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
         <v>2019</v>
@@ -4443,10 +4446,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4458,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
         <v>2019</v>
@@ -4469,10 +4472,10 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4484,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
         <v>2019</v>
@@ -4495,10 +4498,10 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -4514,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
         <v>2019</v>
@@ -4525,10 +4528,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4537,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
         <v>2019</v>
@@ -4548,10 +4551,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
@@ -4567,7 +4570,7 @@
         <v>1914</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
         <v>2019</v>
@@ -4578,10 +4581,10 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -4597,7 +4600,7 @@
         <v>68</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
         <v>2019</v>
@@ -4608,10 +4611,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="3">
         <v>17</v>
@@ -4627,7 +4630,7 @@
         <v>4080</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
         <v>2019</v>
@@ -4638,10 +4641,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3">
         <v>16</v>
@@ -4657,7 +4660,7 @@
         <v>7680</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
         <v>2019</v>
@@ -4668,10 +4671,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -4683,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
         <v>2019</v>
@@ -4694,10 +4697,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -4709,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
         <v>2019</v>
@@ -4720,10 +4723,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -4739,7 +4742,7 @@
         <v>360</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
         <v>2019</v>
@@ -4750,10 +4753,10 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -4769,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
         <v>2019</v>
@@ -4780,10 +4783,10 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -4795,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
         <v>2019</v>
@@ -4806,10 +4809,10 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -4825,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
         <v>2019</v>
@@ -4836,10 +4839,10 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -4855,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
         <v>2019</v>
@@ -4866,10 +4869,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -4885,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
         <v>2019</v>
@@ -4896,10 +4899,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -4908,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
         <v>2019</v>
@@ -4919,10 +4922,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -4938,7 +4941,7 @@
         <v>1136</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
         <v>2019</v>
@@ -4949,10 +4952,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -4968,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
         <v>2019</v>
@@ -4979,10 +4982,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="3">
         <v>5</v>
@@ -4998,7 +5001,7 @@
         <v>4775</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
         <v>2019</v>
@@ -5009,10 +5012,10 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -5028,7 +5031,7 @@
         <v>168</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
         <v>2019</v>
@@ -5039,10 +5042,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -5058,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
         <v>2019</v>
@@ -5069,10 +5072,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -5088,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
         <v>2019</v>
@@ -5099,10 +5102,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -5118,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
         <v>2019</v>
@@ -5129,10 +5132,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -5148,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
         <v>2019</v>
@@ -5159,10 +5162,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -5178,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
         <v>2019</v>
@@ -5189,10 +5192,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -5201,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
         <v>2019</v>
@@ -5212,10 +5215,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -5224,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
         <v>2019</v>
@@ -5235,10 +5238,10 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="3">
         <v>6</v>
@@ -5254,7 +5257,7 @@
         <v>5904</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
         <v>2019</v>
@@ -5265,10 +5268,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
@@ -5284,7 +5287,7 @@
         <v>471</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
         <v>2019</v>
@@ -5295,10 +5298,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -5314,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
         <v>2019</v>
@@ -5325,10 +5328,10 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5337,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
         <v>2019</v>
@@ -5348,10 +5351,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="3">
         <v>3</v>
@@ -5367,7 +5370,7 @@
         <v>1452</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
         <v>2019</v>
@@ -5378,10 +5381,10 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5391,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
         <v>2019</v>
@@ -5402,10 +5405,10 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="3">
         <v>10</v>
@@ -5421,7 +5424,7 @@
         <v>7690</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
         <v>2019</v>
@@ -5432,10 +5435,10 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5445,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
         <v>2019</v>
@@ -5456,10 +5459,10 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="3">
         <v>15</v>
@@ -5475,7 +5478,7 @@
         <v>2325</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
         <v>2019</v>
@@ -5486,10 +5489,10 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5499,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
         <v>2019</v>
@@ -5510,10 +5513,10 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5525,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
         <v>2019</v>
@@ -5536,10 +5539,10 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5551,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
         <v>2019</v>
@@ -5562,10 +5565,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5577,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
         <v>2019</v>
@@ -5588,10 +5591,10 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5603,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
         <v>2019</v>
@@ -5614,10 +5617,10 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5629,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
         <v>2019</v>
@@ -5640,10 +5643,10 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5655,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
         <v>2019</v>
@@ -5666,10 +5669,10 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5681,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
         <v>2019</v>
@@ -5692,10 +5695,10 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5707,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
         <v>2019</v>
@@ -5718,10 +5721,10 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5733,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
         <v>2019</v>
@@ -5744,10 +5747,10 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5756,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
         <v>2019</v>
@@ -5767,10 +5770,10 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -5786,7 +5789,7 @@
         <v>30</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
         <v>2019</v>
@@ -5797,10 +5800,10 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5812,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
         <v>2019</v>
@@ -5823,10 +5826,10 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -5842,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
         <v>2019</v>
@@ -5853,10 +5856,10 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70" s="3">
         <v>17</v>
@@ -5872,7 +5875,7 @@
         <v>2890</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
         <v>2019</v>
@@ -5883,10 +5886,10 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
@@ -5899,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
         <v>2019</v>
@@ -5910,10 +5913,10 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5922,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
         <v>2019</v>
@@ -5945,7 +5948,1969 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BBE6F3-4A5E-5E4C-80AB-257483E97F08}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="3"/>
+      <c r="F2">
+        <v>135</v>
+      </c>
+      <c r="G2" t="e">
+        <f>#REF!*F2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="3"/>
+      <c r="F3">
+        <v>237</v>
+      </c>
+      <c r="G3" t="e">
+        <f>#REF!*F3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="25">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>91</v>
+      </c>
+      <c r="G4" t="e">
+        <f>#REF!*F4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="3"/>
+      <c r="F5">
+        <v>344</v>
+      </c>
+      <c r="G5" t="e">
+        <f>#REF!*F5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="3"/>
+      <c r="F6">
+        <v>130</v>
+      </c>
+      <c r="G6" t="e">
+        <f>#REF!*F6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="3"/>
+      <c r="F7">
+        <v>244</v>
+      </c>
+      <c r="G7" t="e">
+        <f>#REF!*F7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8" t="e">
+        <f>#REF!*F8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="3"/>
+      <c r="F9">
+        <v>57</v>
+      </c>
+      <c r="G9" t="e">
+        <f>#REF!*F9</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="27">
+        <v>63</v>
+      </c>
+      <c r="G10" t="e">
+        <f>#REF!*F10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="27">
+        <v>50</v>
+      </c>
+      <c r="G11" t="e">
+        <f>#REF!*F11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="3"/>
+      <c r="F12">
+        <v>223</v>
+      </c>
+      <c r="G12" t="e">
+        <f>#REF!*F12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="25">
+        <v>174</v>
+      </c>
+      <c r="E13" s="3">
+        <v>126</v>
+      </c>
+      <c r="F13">
+        <v>61</v>
+      </c>
+      <c r="G13" t="e">
+        <f>#REF!*F13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="25">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>104</v>
+      </c>
+      <c r="G14" t="e">
+        <f>#REF!*F14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14">
+      <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>49</v>
+      </c>
+      <c r="G15" t="e">
+        <f>#REF!*F15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="3"/>
+      <c r="G16" t="e">
+        <f>#REF!*F16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="25">
+        <v>153</v>
+      </c>
+      <c r="E17" s="3">
+        <v>147</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17" t="e">
+        <f>#REF!*F17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="25">
+        <v>114</v>
+      </c>
+      <c r="E18" s="3">
+        <v>186</v>
+      </c>
+      <c r="F18">
+        <v>49</v>
+      </c>
+      <c r="G18" t="e">
+        <f>#REF!*F18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="3"/>
+      <c r="F19">
+        <v>49</v>
+      </c>
+      <c r="G19" t="e">
+        <f>#REF!*F19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="3"/>
+      <c r="F20">
+        <v>399</v>
+      </c>
+      <c r="G20" t="e">
+        <f>#REF!*F20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14">
+      <c r="A21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>619</v>
+      </c>
+      <c r="G21" t="e">
+        <f>#REF!*F21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="3"/>
+      <c r="G22" t="e">
+        <f>#REF!*F22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="25">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>638</v>
+      </c>
+      <c r="G23" t="e">
+        <f>#REF!*F23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>68</v>
+      </c>
+      <c r="G24" t="e">
+        <f>#REF!*F24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>240</v>
+      </c>
+      <c r="G25" t="e">
+        <f>#REF!*F25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="25">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>480</v>
+      </c>
+      <c r="G26" t="e">
+        <f>#REF!*F26</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="3"/>
+      <c r="F27">
+        <v>830</v>
+      </c>
+      <c r="G27" t="e">
+        <f>#REF!*F27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="3"/>
+      <c r="F28">
+        <v>430</v>
+      </c>
+      <c r="G28" t="e">
+        <f>#REF!*F28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>360</v>
+      </c>
+      <c r="G29" t="e">
+        <f>#REF!*F29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14">
+      <c r="A30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="25">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>269</v>
+      </c>
+      <c r="G30" t="e">
+        <f>#REF!*F30</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="3"/>
+      <c r="F31">
+        <v>633</v>
+      </c>
+      <c r="G31" t="e">
+        <f>#REF!*F31</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14">
+      <c r="A32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>789</v>
+      </c>
+      <c r="G32" t="e">
+        <f>#REF!*F32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14">
+      <c r="A33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="3"/>
+      <c r="F33">
+        <v>865</v>
+      </c>
+      <c r="G33" t="e">
+        <f>#REF!*F33</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="3"/>
+      <c r="F34">
+        <v>863</v>
+      </c>
+      <c r="G34" t="e">
+        <f>#REF!*F34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="3"/>
+      <c r="G35" t="e">
+        <f>#REF!*F35</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1136</v>
+      </c>
+      <c r="G36" t="e">
+        <f>#REF!*F36</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1367</v>
+      </c>
+      <c r="G37" t="e">
+        <f>#REF!*F37</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="3"/>
+      <c r="F38">
+        <v>955</v>
+      </c>
+      <c r="G38" t="e">
+        <f>#REF!*F38</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="3">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>168</v>
+      </c>
+      <c r="G39" t="e">
+        <f>#REF!*F39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="3"/>
+      <c r="F40">
+        <v>1287</v>
+      </c>
+      <c r="G40" t="e">
+        <f>#REF!*F40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="3"/>
+      <c r="F41">
+        <v>1358</v>
+      </c>
+      <c r="G41" t="e">
+        <f>#REF!*F41</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14">
+      <c r="A42" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1270</v>
+      </c>
+      <c r="G42" t="e">
+        <f>#REF!*F42</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14">
+      <c r="A43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1184</v>
+      </c>
+      <c r="G43" t="e">
+        <f>#REF!*F43</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14">
+      <c r="A44" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>755</v>
+      </c>
+      <c r="G44" t="e">
+        <f>#REF!*F44</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="3"/>
+      <c r="G45" t="e">
+        <f>#REF!*F45</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="3"/>
+      <c r="G46" t="e">
+        <f>#REF!*F46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="25">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>984</v>
+      </c>
+      <c r="G47" t="e">
+        <f>#REF!*F47</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>157</v>
+      </c>
+      <c r="G48" t="e">
+        <f>#REF!*F48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>223</v>
+      </c>
+      <c r="G49" t="e">
+        <f>#REF!*F49</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="3"/>
+      <c r="G50" t="e">
+        <f>#REF!*F50</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="3">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>484</v>
+      </c>
+      <c r="G51" t="e">
+        <f>#REF!*F51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="27"/>
+      <c r="G52" t="e">
+        <f>#REF!*F52</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="25">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>769</v>
+      </c>
+      <c r="G53" t="e">
+        <f>#REF!*F53</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="27"/>
+      <c r="G54" t="e">
+        <f>#REF!*F54</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>155</v>
+      </c>
+      <c r="G55" t="e">
+        <f>#REF!*F55</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="27"/>
+      <c r="G56" t="e">
+        <f>#REF!*F56</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14">
+      <c r="A57" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="3"/>
+      <c r="F57">
+        <v>98</v>
+      </c>
+      <c r="G57" t="e">
+        <f>#REF!*F57</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14">
+      <c r="A58" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="3"/>
+      <c r="F58">
+        <v>59</v>
+      </c>
+      <c r="G58" t="e">
+        <f>#REF!*F58</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14">
+      <c r="A59" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="27">
+        <v>112</v>
+      </c>
+      <c r="G59" t="e">
+        <f>#REF!*F59</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14">
+      <c r="A60" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="27">
+        <v>225</v>
+      </c>
+      <c r="G60" t="e">
+        <f>#REF!*F60</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14">
+      <c r="A61" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="27">
+        <v>80</v>
+      </c>
+      <c r="G61" t="e">
+        <f>#REF!*F61</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="27">
+        <v>80</v>
+      </c>
+      <c r="G62" t="e">
+        <f>#REF!*F62</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I62" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14">
+      <c r="A63" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="27">
+        <v>80</v>
+      </c>
+      <c r="G63" t="e">
+        <f>#REF!*F63</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14">
+      <c r="A64" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="27">
+        <v>125</v>
+      </c>
+      <c r="G64" t="e">
+        <f>#REF!*F64</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14">
+      <c r="A65" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="27">
+        <v>127</v>
+      </c>
+      <c r="G65" t="e">
+        <f>#REF!*F65</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I65" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14">
+      <c r="A66" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="3"/>
+      <c r="G66" t="e">
+        <f>#REF!*F66</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="25">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>4</v>
+      </c>
+      <c r="F67" s="27">
+        <v>30</v>
+      </c>
+      <c r="G67" t="e">
+        <f>#REF!*F67</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="27">
+        <v>345</v>
+      </c>
+      <c r="G68" t="e">
+        <f>#REF!*F68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="3">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>48</v>
+      </c>
+      <c r="G69" t="e">
+        <f>#REF!*F69</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14">
+      <c r="A70" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="25"/>
+      <c r="E70" s="3">
+        <v>20</v>
+      </c>
+      <c r="F70">
+        <v>170</v>
+      </c>
+      <c r="G70" t="e">
+        <f>#REF!*F70</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="3">
+        <v>10</v>
+      </c>
+      <c r="G71" t="e">
+        <f>#REF!*F71</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="3"/>
+      <c r="G72" t="e">
+        <f>#REF!*F72</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" s="28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="E73" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71E2C1-B45E-0E4A-804A-0318581059A8}">
+  <dimension ref="A1:I112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5956,13 +7921,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -5971,16 +7936,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>80</v>
-      </c>
       <c r="I1" s="26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5988,25 +7953,29 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>135</v>
       </c>
       <c r="G2">
-        <f>D2*F2</f>
+        <f>F2*D2</f>
         <v>0</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6014,25 +7983,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>237</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">D3*F3</f>
+        <f t="shared" ref="G3:G27" si="0">F3*D3</f>
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6040,29 +8013,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>91</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>0</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6070,13 +8043,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>344</v>
       </c>
@@ -6085,10 +8062,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6096,13 +8073,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
       <c r="F6">
         <v>130</v>
       </c>
@@ -6111,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6122,13 +8103,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>244</v>
       </c>
@@ -6137,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6148,16 +8133,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>88</v>
@@ -6167,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6178,13 +8163,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>57</v>
       </c>
@@ -6193,10 +8182,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6204,13 +8193,17 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
       <c r="F10" s="27">
         <v>63</v>
       </c>
@@ -6219,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6230,13 +8223,17 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
       <c r="F11" s="27">
         <v>50</v>
       </c>
@@ -6245,10 +8242,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6256,13 +8253,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
       <c r="F12">
         <v>223</v>
       </c>
@@ -6271,10 +8272,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6282,29 +8283,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>61</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>10614</v>
+        <v>0</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6312,29 +8313,29 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>104</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>2496</v>
+        <v>0</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14">
@@ -6342,16 +8343,16 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>49</v>
@@ -6361,10 +8362,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6372,22 +8373,26 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6395,29 +8400,29 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>70</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>10710</v>
+        <v>0</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6425,29 +8430,29 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>49</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>5586</v>
+        <v>0</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6455,13 +8460,17 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
       <c r="F19">
         <v>49</v>
       </c>
@@ -6470,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6481,13 +8490,17 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
       <c r="F20">
         <v>399</v>
       </c>
@@ -6496,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14">
@@ -6507,16 +8520,16 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>619</v>
@@ -6526,10 +8539,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6537,22 +8550,26 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6560,29 +8577,29 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>638</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>2552</v>
+        <v>0</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6590,29 +8607,29 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>68</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6620,29 +8637,29 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>240</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6650,29 +8667,29 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>480</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6680,13 +8697,17 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
       <c r="F27">
         <v>830</v>
       </c>
@@ -6695,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6706,25 +8727,29 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
       <c r="F28">
         <v>430</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G28:G72" si="1">F28*D67</f>
         <v>0</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6732,29 +8757,29 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>360</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>360</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14">
@@ -6762,29 +8787,29 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>269</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>269</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6792,25 +8817,29 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
       <c r="F31">
         <v>633</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14">
@@ -6818,29 +8847,29 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>789</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>789</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14">
@@ -6848,25 +8877,29 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
       <c r="F33">
         <v>865</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6874,25 +8907,29 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
       <c r="F34">
         <v>863</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6900,22 +8937,26 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6923,29 +8964,29 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>1136</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -6953,29 +8994,29 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1367</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>1367</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6983,25 +9024,29 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
       <c r="F38">
         <v>955</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7009,29 +9054,29 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>168</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7039,25 +9084,29 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
       <c r="F40">
         <v>1287</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7065,25 +9114,29 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
       <c r="F41">
         <v>1358</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14">
@@ -7091,29 +9144,29 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>1270</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14">
@@ -7121,29 +9174,29 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>1184</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14">
@@ -7151,29 +9204,29 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>755</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7181,22 +9234,26 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7204,22 +9261,26 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7227,29 +9288,29 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>984</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>984</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7257,29 +9318,29 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>157</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7287,10 +9348,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -7302,14 +9363,14 @@
         <v>223</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7317,22 +9378,26 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7340,29 +9405,29 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>484</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7370,23 +9435,27 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
       <c r="F52" s="27"/>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7394,29 +9463,29 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D53" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>769</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
-        <v>3845</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7424,25 +9493,27 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
       <c r="F54" s="27"/>
-      <c r="G54" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7450,10 +9521,10 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -7465,14 +9536,14 @@
         <v>155</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7480,23 +9551,27 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
       <c r="F56" s="27"/>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14">
@@ -7504,25 +9579,29 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
       <c r="F57">
         <v>98</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14">
@@ -7530,25 +9609,29 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
       <c r="F58">
         <v>59</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14">
@@ -7556,25 +9639,29 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
       <c r="F59" s="27">
         <v>112</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14">
@@ -7582,25 +9669,29 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
       <c r="F60" s="27">
         <v>225</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14">
@@ -7608,25 +9699,29 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
       <c r="F61" s="27">
         <v>80</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7634,25 +9729,29 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
       <c r="F62" s="27">
         <v>80</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14">
@@ -7660,25 +9759,29 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
       <c r="F63" s="27">
         <v>80</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14">
@@ -7686,25 +9789,29 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
       <c r="F64" s="27">
         <v>125</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14">
@@ -7712,25 +9819,29 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
       <c r="F65" s="27">
         <v>127</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14">
@@ -7738,22 +9849,26 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -7761,29 +9876,29 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F67" s="27">
         <v>30</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G72" si="1">D67*F67</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -7791,13 +9906,17 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
       <c r="F68" s="27">
         <v>345</v>
       </c>
@@ -7806,10 +9925,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -7817,16 +9936,16 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>48</v>
@@ -7836,10 +9955,10 @@
         <v>0</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14">
@@ -7847,16 +9966,16 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>170</v>
@@ -7866,10 +9985,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -7877,26 +9996,22 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3">
-        <v>10</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
       <c r="G71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71" s="28">
-        <v>2019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -7904,10 +10019,10 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -7916,2160 +10031,15 @@
         <v>0</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I72" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="D73" s="3">
-        <v>16097</v>
-      </c>
-      <c r="E73" s="3">
-        <v>48832</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71E2C1-B45E-0E4A-804A-0318581059A8}">
-  <dimension ref="A1:I112"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>135</v>
-      </c>
-      <c r="G2">
-        <f>F2*D2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>237</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G27" si="0">F3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>91</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>344</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>130</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>244</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>88</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>57</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>63</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>223</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>104</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14">
-      <c r="A15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>49</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>70</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>49</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>49</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>399</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14">
-      <c r="A21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>619</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>638</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>68</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>240</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>480</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>830</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>430</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ref="G28:G72" si="1">F28*D67</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>360</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14">
-      <c r="A30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>269</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>633</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14">
-      <c r="A32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>789</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14">
-      <c r="A33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>865</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>863</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1136</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1367</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>955</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>168</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1287</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1358</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14">
-      <c r="A42" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1270</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14">
-      <c r="A43" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1184</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14">
-      <c r="A44" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>755</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>984</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>157</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>223</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>484</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>769</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="27"/>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>155</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="27"/>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="14">
-      <c r="A57" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>98</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="14">
-      <c r="A58" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>59</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="14">
-      <c r="A59" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="27">
-        <v>112</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I59" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14">
-      <c r="A60" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="27">
-        <v>225</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="14">
-      <c r="A61" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="27">
-        <v>80</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="27">
-        <v>80</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I62" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="14">
-      <c r="A63" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="27">
-        <v>80</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I63" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="14">
-      <c r="A64" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="27">
-        <v>125</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I64" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="14">
-      <c r="A65" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="27">
-        <v>127</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="14">
-      <c r="A66" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I66" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="27">
-        <v>30</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I67" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="27">
-        <v>345</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I68" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>48</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14">
-      <c r="A70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>170</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I70" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I71" s="28">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I72" s="28">
-        <v>2019</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9">
       <c r="D74" s="3"/>
